--- a/testy_modułów/wynik_dane.xlsx
+++ b/testy_modułów/wynik_dane.xlsx
@@ -10874,10 +10874,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
+      <c r="T73" t="n">
+        <v>6</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -10940,16 +10938,8 @@
       <c r="AS73" t="n">
         <v>5310</v>
       </c>
-      <c r="AT73" t="inlineStr">
-        <is>
-          <t>prd.41034900</t>
-        </is>
-      </c>
-      <c r="AU73" t="inlineStr">
-        <is>
-          <t>Plik: prd.41034900.dld, grubość=6.0 mm, promień_wewn=8.40866 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AU73" t="inlineStr"/>
       <c r="AV73" t="inlineStr"/>
       <c r="AW73" t="inlineStr"/>
       <c r="AX73" t="inlineStr"/>
@@ -10962,31 +10952,11 @@
         </is>
       </c>
       <c r="BC73" t="inlineStr"/>
-      <c r="BD73" t="inlineStr">
-        <is>
-          <t>a_zewn=585.064001, a_in=594.02, a_out=599.47; b_zewn=106.064001, b_in=115.02, b_out=120.47</t>
-        </is>
-      </c>
-      <c r="BE73" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF73" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(599.47,120.47), Inside(a,b)=(594.02,115.02)</t>
-        </is>
-      </c>
-      <c r="BG73" t="inlineStr">
-        <is>
-          <t>8.40866</t>
-        </is>
-      </c>
-      <c r="BH73" t="inlineStr">
-        <is>
-          <t>17.92</t>
-        </is>
-      </c>
+      <c r="BD73" t="inlineStr"/>
+      <c r="BE73" t="inlineStr"/>
+      <c r="BF73" t="inlineStr"/>
+      <c r="BG73" t="inlineStr"/>
+      <c r="BH73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -11318,10 +11288,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="T76" t="n">
+        <v>3</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -11384,16 +11352,8 @@
       <c r="AS76" t="n">
         <v>5310</v>
       </c>
-      <c r="AT76" t="inlineStr">
-        <is>
-          <t>prd.41034903</t>
-        </is>
-      </c>
-      <c r="AU76" t="inlineStr">
-        <is>
-          <t>Plik: prd.41034903.dld, grubość=3.0 mm, promień_wewn=4.25299 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AU76" t="inlineStr"/>
       <c r="AV76" t="inlineStr"/>
       <c r="AW76" t="inlineStr"/>
       <c r="AX76" t="inlineStr"/>
@@ -11406,31 +11366,11 @@
         </is>
       </c>
       <c r="BC76" t="inlineStr"/>
-      <c r="BD76" t="inlineStr">
-        <is>
-          <t>a_zewn=296.06669, a_in=300.59, a_out=303.32; b_zewn=3.821885, b_in=8.34, b_out=11.07</t>
-        </is>
-      </c>
-      <c r="BE76" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF76" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(303.32,11.07), Inside(a,b)=(300.59,8.34)</t>
-        </is>
-      </c>
-      <c r="BG76" t="inlineStr">
-        <is>
-          <t>4.25299</t>
-        </is>
-      </c>
-      <c r="BH76" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
+      <c r="BD76" t="inlineStr"/>
+      <c r="BE76" t="inlineStr"/>
+      <c r="BF76" t="inlineStr"/>
+      <c r="BG76" t="inlineStr"/>
+      <c r="BH76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -14903,10 +14843,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
+      <c r="T101" t="n">
+        <v>5</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -14969,16 +14907,8 @@
       <c r="AS101" t="n">
         <v>5310</v>
       </c>
-      <c r="AT101" t="inlineStr">
-        <is>
-          <t>prd.40038124</t>
-        </is>
-      </c>
-      <c r="AU101" t="inlineStr">
-        <is>
-          <t>Plik: prd.40038124.dld, grubość=5.0 mm, promień_wewn=7.01898 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT101" t="inlineStr"/>
+      <c r="AU101" t="inlineStr"/>
       <c r="AV101" t="inlineStr"/>
       <c r="AW101" t="inlineStr"/>
       <c r="AX101" t="inlineStr"/>
@@ -14991,31 +14921,11 @@
         </is>
       </c>
       <c r="BC101" t="inlineStr"/>
-      <c r="BD101" t="inlineStr">
-        <is>
-          <t>a_zewn=493.935164, a_in=501.41, a_out=505.95; b_zewn=6.064836, b_in=13.54, b_out=18.08</t>
-        </is>
-      </c>
-      <c r="BE101" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF101" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(505.95,18.08), Inside(a,b)=(501.41,13.54)</t>
-        </is>
-      </c>
-      <c r="BG101" t="inlineStr">
-        <is>
-          <t>7.01898</t>
-        </is>
-      </c>
-      <c r="BH101" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
+      <c r="BD101" t="inlineStr"/>
+      <c r="BE101" t="inlineStr"/>
+      <c r="BF101" t="inlineStr"/>
+      <c r="BG101" t="inlineStr"/>
+      <c r="BH101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -15601,10 +15511,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
+      <c r="T105" t="n">
+        <v>4</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
@@ -15667,16 +15575,8 @@
       <c r="AS105" t="n">
         <v>5310</v>
       </c>
-      <c r="AT105" t="inlineStr">
-        <is>
-          <t>prd.410380334</t>
-        </is>
-      </c>
-      <c r="AU105" t="inlineStr">
-        <is>
-          <t>Plik: prd.410380334.dld, grubość=5.0 mm, promień_wewn=7.01898 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT105" t="inlineStr"/>
+      <c r="AU105" t="inlineStr"/>
       <c r="AV105" t="inlineStr"/>
       <c r="AW105" t="inlineStr"/>
       <c r="AX105" t="inlineStr"/>
@@ -15689,31 +15589,11 @@
         </is>
       </c>
       <c r="BC105" t="inlineStr"/>
-      <c r="BD105" t="inlineStr">
-        <is>
-          <t>a_zewn=493.935163, a_in=501.41, a_out=505.95; b_zewn=43.935163, b_in=51.41, b_out=55.95</t>
-        </is>
-      </c>
-      <c r="BE105" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF105" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(505.95,55.95), Inside(a,b)=(501.41,51.41)</t>
-        </is>
-      </c>
-      <c r="BG105" t="inlineStr">
-        <is>
-          <t>7.01898</t>
-        </is>
-      </c>
-      <c r="BH105" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
+      <c r="BD105" t="inlineStr"/>
+      <c r="BE105" t="inlineStr"/>
+      <c r="BF105" t="inlineStr"/>
+      <c r="BG105" t="inlineStr"/>
+      <c r="BH105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -30760,10 +30640,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T219" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="T219" t="n">
+        <v>5</v>
       </c>
       <c r="U219" t="inlineStr">
         <is>
@@ -30826,16 +30704,8 @@
       <c r="AS219" t="n">
         <v>5310</v>
       </c>
-      <c r="AT219" t="inlineStr">
-        <is>
-          <t>prd.41045201p6i7</t>
-        </is>
-      </c>
-      <c r="AU219" t="inlineStr">
-        <is>
-          <t>Plik: prd.41045201p6i7.dld, grubość=3.0 mm, promień_wewn=4.25299 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT219" t="inlineStr"/>
+      <c r="AU219" t="inlineStr"/>
       <c r="AV219" t="inlineStr"/>
       <c r="AW219" t="inlineStr"/>
       <c r="AX219" t="inlineStr"/>
@@ -30848,31 +30718,11 @@
         </is>
       </c>
       <c r="BC219" t="inlineStr"/>
-      <c r="BD219" t="inlineStr">
-        <is>
-          <t>a_zewn=253.821885, a_in=258.34, a_out=261.07; b_zewn=3.821885, b_in=8.34, b_out=11.07</t>
-        </is>
-      </c>
-      <c r="BE219" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF219" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(261.07,11.07), Inside(a,b)=(258.34,8.34)</t>
-        </is>
-      </c>
-      <c r="BG219" t="inlineStr">
-        <is>
-          <t>4.25299</t>
-        </is>
-      </c>
-      <c r="BH219" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
+      <c r="BD219" t="inlineStr"/>
+      <c r="BE219" t="inlineStr"/>
+      <c r="BF219" t="inlineStr"/>
+      <c r="BG219" t="inlineStr"/>
+      <c r="BH219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -31774,10 +31624,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T225" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="T225" t="n">
+        <v>3</v>
       </c>
       <c r="U225" t="inlineStr">
         <is>
@@ -31844,16 +31692,8 @@
       <c r="AS225" t="n">
         <v>5310</v>
       </c>
-      <c r="AT225" t="inlineStr">
-        <is>
-          <t>prd.41045201p6i7</t>
-        </is>
-      </c>
-      <c r="AU225" t="inlineStr">
-        <is>
-          <t>Plik: prd.41045201p6i7.dld, grubość=3.0 mm, promień_wewn=4.25299 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT225" t="inlineStr"/>
+      <c r="AU225" t="inlineStr"/>
       <c r="AV225" t="inlineStr"/>
       <c r="AW225" t="inlineStr"/>
       <c r="AX225" t="inlineStr"/>
@@ -31866,31 +31706,11 @@
         </is>
       </c>
       <c r="BC225" t="inlineStr"/>
-      <c r="BD225" t="inlineStr">
-        <is>
-          <t>a_zewn=253.821885, a_in=258.34, a_out=261.07; b_zewn=3.821885, b_in=8.34, b_out=11.07</t>
-        </is>
-      </c>
-      <c r="BE225" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF225" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(261.07,11.07), Inside(a,b)=(258.34,8.34)</t>
-        </is>
-      </c>
-      <c r="BG225" t="inlineStr">
-        <is>
-          <t>4.25299</t>
-        </is>
-      </c>
-      <c r="BH225" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
+      <c r="BD225" t="inlineStr"/>
+      <c r="BE225" t="inlineStr"/>
+      <c r="BF225" t="inlineStr"/>
+      <c r="BG225" t="inlineStr"/>
+      <c r="BH225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -32316,10 +32136,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T229" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="T229" t="n">
+        <v>3</v>
       </c>
       <c r="U229" t="inlineStr">
         <is>
@@ -32382,16 +32200,8 @@
       <c r="AS229" t="n">
         <v>5310</v>
       </c>
-      <c r="AT229" t="inlineStr">
-        <is>
-          <t>prd.41045203</t>
-        </is>
-      </c>
-      <c r="AU229" t="inlineStr">
-        <is>
-          <t>Plik: prd.41045203.dld, grubość=3.0 mm, promień_wewn=4.25299 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT229" t="inlineStr"/>
+      <c r="AU229" t="inlineStr"/>
       <c r="AV229" t="inlineStr"/>
       <c r="AW229" t="inlineStr"/>
       <c r="AX229" t="inlineStr"/>
@@ -32404,31 +32214,11 @@
         </is>
       </c>
       <c r="BC229" t="inlineStr"/>
-      <c r="BD229" t="inlineStr">
-        <is>
-          <t>a_zewn=296.393294, a_in=300.91, a_out=303.65; b_zewn=2.524232, b_in=7.04, b_out=9.78</t>
-        </is>
-      </c>
-      <c r="BE229" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF229" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(303.65,9.78), Inside(a,b)=(300.91,7.04)</t>
-        </is>
-      </c>
-      <c r="BG229" t="inlineStr">
-        <is>
-          <t>4.25299</t>
-        </is>
-      </c>
-      <c r="BH229" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
+      <c r="BD229" t="inlineStr"/>
+      <c r="BE229" t="inlineStr"/>
+      <c r="BF229" t="inlineStr"/>
+      <c r="BG229" t="inlineStr"/>
+      <c r="BH229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -35606,10 +35396,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T252" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="T252" t="n">
+        <v>3</v>
       </c>
       <c r="U252" t="inlineStr">
         <is>
@@ -35676,16 +35464,8 @@
       <c r="AS252" t="n">
         <v>5310</v>
       </c>
-      <c r="AT252" t="inlineStr">
-        <is>
-          <t>prd.40046328</t>
-        </is>
-      </c>
-      <c r="AU252" t="inlineStr">
-        <is>
-          <t>Plik: prd.40046328.dld, grubość=3.0 mm, promień_wewn=4.25299 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT252" t="inlineStr"/>
+      <c r="AU252" t="inlineStr"/>
       <c r="AV252" t="inlineStr"/>
       <c r="AW252" t="inlineStr"/>
       <c r="AX252" t="inlineStr"/>
@@ -35698,31 +35478,11 @@
         </is>
       </c>
       <c r="BC252" t="inlineStr"/>
-      <c r="BD252" t="inlineStr">
-        <is>
-          <t>a_zewn=296.178115, a_in=300.7, a_out=303.43; b_zewn=3.821885, b_in=8.34, b_out=11.07</t>
-        </is>
-      </c>
-      <c r="BE252" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF252" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(303.43,11.07), Inside(a,b)=(300.7,8.34)</t>
-        </is>
-      </c>
-      <c r="BG252" t="inlineStr">
-        <is>
-          <t>4.25299</t>
-        </is>
-      </c>
-      <c r="BH252" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
+      <c r="BD252" t="inlineStr"/>
+      <c r="BE252" t="inlineStr"/>
+      <c r="BF252" t="inlineStr"/>
+      <c r="BG252" t="inlineStr"/>
+      <c r="BH252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -35980,16 +35740,8 @@
       <c r="AS254" t="n">
         <v>5310</v>
       </c>
-      <c r="AT254" t="inlineStr">
-        <is>
-          <t>prd.SL40046321</t>
-        </is>
-      </c>
-      <c r="AU254" t="inlineStr">
-        <is>
-          <t>Błąd parsowania / brak danych: prd.SL40046321.dld</t>
-        </is>
-      </c>
+      <c r="AT254" t="inlineStr"/>
+      <c r="AU254" t="inlineStr"/>
       <c r="AV254" t="inlineStr"/>
       <c r="AW254" t="inlineStr"/>
       <c r="AX254" t="inlineStr"/>
@@ -37116,10 +36868,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T263" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
+      <c r="T263" t="n">
+        <v>2</v>
       </c>
       <c r="U263" t="inlineStr">
         <is>
@@ -37182,16 +36932,8 @@
       <c r="AS263" t="n">
         <v>5310</v>
       </c>
-      <c r="AT263" t="inlineStr">
-        <is>
-          <t>prd.41046803</t>
-        </is>
-      </c>
-      <c r="AU263" t="inlineStr">
-        <is>
-          <t>Plik: prd.41046803.dld, grubość=2.0 mm, promień_wewn=2.81648 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT263" t="inlineStr"/>
+      <c r="AU263" t="inlineStr"/>
       <c r="AV263" t="inlineStr"/>
       <c r="AW263" t="inlineStr"/>
       <c r="AX263" t="inlineStr"/>
@@ -37204,31 +36946,11 @@
         </is>
       </c>
       <c r="BC263" t="inlineStr"/>
-      <c r="BD263" t="inlineStr">
-        <is>
-          <t>a_zewn=2.773604, a_in=5.77, a_out=7.59; b_zewn=47.226396, b_in=50.22, b_out=52.04</t>
-        </is>
-      </c>
-      <c r="BE263" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF263" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(7.59,52.04), Inside(a,b)=(5.77,50.22)</t>
-        </is>
-      </c>
-      <c r="BG263" t="inlineStr">
-        <is>
-          <t>2.81648</t>
-        </is>
-      </c>
-      <c r="BH263" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
+      <c r="BD263" t="inlineStr"/>
+      <c r="BE263" t="inlineStr"/>
+      <c r="BF263" t="inlineStr"/>
+      <c r="BG263" t="inlineStr"/>
+      <c r="BH263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -40832,10 +40554,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T291" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="T291" t="n">
+        <v>3</v>
       </c>
       <c r="U291" t="inlineStr">
         <is>
@@ -40902,16 +40622,8 @@
       <c r="AS291" t="n">
         <v>5310</v>
       </c>
-      <c r="AT291" t="inlineStr">
-        <is>
-          <t>prd.40051153</t>
-        </is>
-      </c>
-      <c r="AU291" t="inlineStr">
-        <is>
-          <t>Plik: prd.40051153.dld, grubość=3.0 mm, promień_wewn=7.70931 mm, kąt=120.0 st.</t>
-        </is>
-      </c>
+      <c r="AT291" t="inlineStr"/>
+      <c r="AU291" t="inlineStr"/>
       <c r="AV291" t="inlineStr"/>
       <c r="AW291" t="inlineStr"/>
       <c r="AX291" t="inlineStr"/>
@@ -40924,31 +40636,11 @@
         </is>
       </c>
       <c r="BC291" t="inlineStr"/>
-      <c r="BD291" t="inlineStr">
-        <is>
-          <t>a_zewn=294.231958, a_in=303.88, a_out=300.41; b_zewn=5.768042, b_in=15.41, b_out=11.95</t>
-        </is>
-      </c>
-      <c r="BE291" t="inlineStr">
-        <is>
-          <t>120.0</t>
-        </is>
-      </c>
-      <c r="BF291" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(300.41,11.95), Inside(a,b)=(303.88,15.41)</t>
-        </is>
-      </c>
-      <c r="BG291" t="inlineStr">
-        <is>
-          <t>7.70931</t>
-        </is>
-      </c>
-      <c r="BH291" t="inlineStr">
-        <is>
-          <t>19.29</t>
-        </is>
-      </c>
+      <c r="BD291" t="inlineStr"/>
+      <c r="BE291" t="inlineStr"/>
+      <c r="BF291" t="inlineStr"/>
+      <c r="BG291" t="inlineStr"/>
+      <c r="BH291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -41142,10 +40834,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T293" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="T293" t="n">
+        <v>3</v>
       </c>
       <c r="U293" t="inlineStr">
         <is>
@@ -41212,16 +40902,8 @@
       <c r="AS293" t="n">
         <v>5310</v>
       </c>
-      <c r="AT293" t="inlineStr">
-        <is>
-          <t>prd.40051153</t>
-        </is>
-      </c>
-      <c r="AU293" t="inlineStr">
-        <is>
-          <t>Plik: prd.40051153.dld, grubość=3.0 mm, promień_wewn=7.70931 mm, kąt=120.0 st.</t>
-        </is>
-      </c>
+      <c r="AT293" t="inlineStr"/>
+      <c r="AU293" t="inlineStr"/>
       <c r="AV293" t="inlineStr"/>
       <c r="AW293" t="inlineStr"/>
       <c r="AX293" t="inlineStr"/>
@@ -41234,31 +40916,11 @@
         </is>
       </c>
       <c r="BC293" t="inlineStr"/>
-      <c r="BD293" t="inlineStr">
-        <is>
-          <t>a_zewn=294.231958, a_in=303.88, a_out=300.41; b_zewn=5.768042, b_in=15.41, b_out=11.95</t>
-        </is>
-      </c>
-      <c r="BE293" t="inlineStr">
-        <is>
-          <t>120.0</t>
-        </is>
-      </c>
-      <c r="BF293" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(300.41,11.95), Inside(a,b)=(303.88,15.41)</t>
-        </is>
-      </c>
-      <c r="BG293" t="inlineStr">
-        <is>
-          <t>7.70931</t>
-        </is>
-      </c>
-      <c r="BH293" t="inlineStr">
-        <is>
-          <t>19.29</t>
-        </is>
-      </c>
+      <c r="BD293" t="inlineStr"/>
+      <c r="BE293" t="inlineStr"/>
+      <c r="BF293" t="inlineStr"/>
+      <c r="BG293" t="inlineStr"/>
+      <c r="BH293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -41446,10 +41108,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T295" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
+      <c r="T295" t="n">
+        <v>5</v>
       </c>
       <c r="U295" t="inlineStr">
         <is>
@@ -41512,16 +41172,8 @@
       <c r="AS295" t="n">
         <v>5310</v>
       </c>
-      <c r="AT295" t="inlineStr">
-        <is>
-          <t>prd.40051220</t>
-        </is>
-      </c>
-      <c r="AU295" t="inlineStr">
-        <is>
-          <t>Plik: prd.40051220.dld, grubość=5.0 mm, promień_wewn=7.01898 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT295" t="inlineStr"/>
+      <c r="AU295" t="inlineStr"/>
       <c r="AV295" t="inlineStr"/>
       <c r="AW295" t="inlineStr"/>
       <c r="AX295" t="inlineStr"/>
@@ -41534,31 +41186,11 @@
         </is>
       </c>
       <c r="BC295" t="inlineStr"/>
-      <c r="BD295" t="inlineStr">
-        <is>
-          <t>a_zewn=493.935163, a_in=501.41, a_out=505.95; b_zewn=6.064837, b_in=13.54, b_out=18.08</t>
-        </is>
-      </c>
-      <c r="BE295" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF295" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(505.95,18.08), Inside(a,b)=(501.41,13.54)</t>
-        </is>
-      </c>
-      <c r="BG295" t="inlineStr">
-        <is>
-          <t>7.01898</t>
-        </is>
-      </c>
-      <c r="BH295" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
+      <c r="BD295" t="inlineStr"/>
+      <c r="BE295" t="inlineStr"/>
+      <c r="BF295" t="inlineStr"/>
+      <c r="BG295" t="inlineStr"/>
+      <c r="BH295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -41864,10 +41496,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T298" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
+      <c r="T298" t="n">
+        <v>4</v>
       </c>
       <c r="U298" t="inlineStr">
         <is>
@@ -41930,16 +41560,8 @@
       <c r="AS298" t="n">
         <v>5310</v>
       </c>
-      <c r="AT298" t="inlineStr">
-        <is>
-          <t>prd.40051401</t>
-        </is>
-      </c>
-      <c r="AU298" t="inlineStr">
-        <is>
-          <t>Plik: prd.40051401.dld, grubość=4.0 mm, promień_wewn=5.6326 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT298" t="inlineStr"/>
+      <c r="AU298" t="inlineStr"/>
       <c r="AV298" t="inlineStr"/>
       <c r="AW298" t="inlineStr"/>
       <c r="AX298" t="inlineStr"/>
@@ -41952,31 +41574,11 @@
         </is>
       </c>
       <c r="BC298" t="inlineStr"/>
-      <c r="BD298" t="inlineStr">
-        <is>
-          <t>a_zewn=394.919392, a_in=400.91, a_out=404.55; b_zewn=3.566362, b_in=9.56, b_out=13.2</t>
-        </is>
-      </c>
-      <c r="BE298" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF298" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(404.55,13.2), Inside(a,b)=(400.91,9.56)</t>
-        </is>
-      </c>
-      <c r="BG298" t="inlineStr">
-        <is>
-          <t>5.6326</t>
-        </is>
-      </c>
-      <c r="BH298" t="inlineStr">
-        <is>
-          <t>11.99</t>
-        </is>
-      </c>
+      <c r="BD298" t="inlineStr"/>
+      <c r="BE298" t="inlineStr"/>
+      <c r="BF298" t="inlineStr"/>
+      <c r="BG298" t="inlineStr"/>
+      <c r="BH298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -42700,10 +42302,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T304" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
+      <c r="T304" t="n">
+        <v>4</v>
       </c>
       <c r="U304" t="inlineStr">
         <is>
@@ -42766,16 +42366,8 @@
       <c r="AS304" t="n">
         <v>5310</v>
       </c>
-      <c r="AT304" t="inlineStr">
-        <is>
-          <t>prd.41051701</t>
-        </is>
-      </c>
-      <c r="AU304" t="inlineStr">
-        <is>
-          <t>Plik: prd.41051701.dld, grubość=4.0 mm, promień_wewn=5.6326 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT304" t="inlineStr"/>
+      <c r="AU304" t="inlineStr"/>
       <c r="AV304" t="inlineStr"/>
       <c r="AW304" t="inlineStr"/>
       <c r="AX304" t="inlineStr"/>
@@ -42788,31 +42380,11 @@
         </is>
       </c>
       <c r="BC304" t="inlineStr"/>
-      <c r="BD304" t="inlineStr">
-        <is>
-          <t>a_zewn=283.299936, a_in=289.29, a_out=292.93; b_zewn=6.299936, b_in=12.29, b_out=15.93</t>
-        </is>
-      </c>
-      <c r="BE304" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF304" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(292.93,15.93), Inside(a,b)=(289.29,12.29)</t>
-        </is>
-      </c>
-      <c r="BG304" t="inlineStr">
-        <is>
-          <t>5.6326</t>
-        </is>
-      </c>
-      <c r="BH304" t="inlineStr">
-        <is>
-          <t>11.99</t>
-        </is>
-      </c>
+      <c r="BD304" t="inlineStr"/>
+      <c r="BE304" t="inlineStr"/>
+      <c r="BF304" t="inlineStr"/>
+      <c r="BG304" t="inlineStr"/>
+      <c r="BH304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -44114,16 +43686,8 @@
       <c r="AS314" t="n">
         <v>5310</v>
       </c>
-      <c r="AT314" t="inlineStr">
-        <is>
-          <t>prd.40051379</t>
-        </is>
-      </c>
-      <c r="AU314" t="inlineStr">
-        <is>
-          <t>Błąd parsowania / brak danych: prd.40051379.dld</t>
-        </is>
-      </c>
+      <c r="AT314" t="inlineStr"/>
+      <c r="AU314" t="inlineStr"/>
       <c r="AV314" t="inlineStr"/>
       <c r="AW314" t="inlineStr"/>
       <c r="AX314" t="inlineStr"/>
@@ -44670,16 +44234,8 @@
       <c r="AS318" t="n">
         <v>5310</v>
       </c>
-      <c r="AT318" t="inlineStr">
-        <is>
-          <t>prd.SL40051380</t>
-        </is>
-      </c>
-      <c r="AU318" t="inlineStr">
-        <is>
-          <t>Błąd parsowania / brak danych: prd.SL40051380.dld</t>
-        </is>
-      </c>
+      <c r="AT318" t="inlineStr"/>
+      <c r="AU318" t="inlineStr"/>
       <c r="AV318" t="inlineStr"/>
       <c r="AW318" t="inlineStr"/>
       <c r="AX318" t="inlineStr"/>
@@ -46654,10 +46210,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T333" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
+      <c r="T333" t="n">
+        <v>5</v>
       </c>
       <c r="U333" t="inlineStr">
         <is>
@@ -46720,16 +46274,8 @@
       <c r="AS333" t="n">
         <v>5310</v>
       </c>
-      <c r="AT333" t="inlineStr">
-        <is>
-          <t>prd.40051220</t>
-        </is>
-      </c>
-      <c r="AU333" t="inlineStr">
-        <is>
-          <t>Plik: prd.40051220.dld, grubość=5.0 mm, promień_wewn=7.01898 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT333" t="inlineStr"/>
+      <c r="AU333" t="inlineStr"/>
       <c r="AV333" t="inlineStr"/>
       <c r="AW333" t="inlineStr"/>
       <c r="AX333" t="inlineStr"/>
@@ -46742,31 +46288,11 @@
         </is>
       </c>
       <c r="BC333" t="inlineStr"/>
-      <c r="BD333" t="inlineStr">
-        <is>
-          <t>a_zewn=493.935163, a_in=501.41, a_out=505.95; b_zewn=6.064837, b_in=13.54, b_out=18.08</t>
-        </is>
-      </c>
-      <c r="BE333" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF333" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(505.95,18.08), Inside(a,b)=(501.41,13.54)</t>
-        </is>
-      </c>
-      <c r="BG333" t="inlineStr">
-        <is>
-          <t>7.01898</t>
-        </is>
-      </c>
-      <c r="BH333" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
+      <c r="BD333" t="inlineStr"/>
+      <c r="BE333" t="inlineStr"/>
+      <c r="BF333" t="inlineStr"/>
+      <c r="BG333" t="inlineStr"/>
+      <c r="BH333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -49052,10 +48578,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T351" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
+      <c r="T351" t="n">
+        <v>5</v>
       </c>
       <c r="U351" t="inlineStr">
         <is>
@@ -49118,16 +48642,8 @@
       <c r="AS351" t="n">
         <v>5310</v>
       </c>
-      <c r="AT351" t="inlineStr">
-        <is>
-          <t>prd.40051220</t>
-        </is>
-      </c>
-      <c r="AU351" t="inlineStr">
-        <is>
-          <t>Plik: prd.40051220.dld, grubość=5.0 mm, promień_wewn=7.01898 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT351" t="inlineStr"/>
+      <c r="AU351" t="inlineStr"/>
       <c r="AV351" t="inlineStr"/>
       <c r="AW351" t="inlineStr"/>
       <c r="AX351" t="inlineStr"/>
@@ -49140,31 +48656,11 @@
         </is>
       </c>
       <c r="BC351" t="inlineStr"/>
-      <c r="BD351" t="inlineStr">
-        <is>
-          <t>a_zewn=493.935163, a_in=501.41, a_out=505.95; b_zewn=6.064837, b_in=13.54, b_out=18.08</t>
-        </is>
-      </c>
-      <c r="BE351" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF351" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(505.95,18.08), Inside(a,b)=(501.41,13.54)</t>
-        </is>
-      </c>
-      <c r="BG351" t="inlineStr">
-        <is>
-          <t>7.01898</t>
-        </is>
-      </c>
-      <c r="BH351" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
+      <c r="BD351" t="inlineStr"/>
+      <c r="BE351" t="inlineStr"/>
+      <c r="BF351" t="inlineStr"/>
+      <c r="BG351" t="inlineStr"/>
+      <c r="BH351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -49470,10 +48966,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T354" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
+      <c r="T354" t="n">
+        <v>4</v>
       </c>
       <c r="U354" t="inlineStr">
         <is>
@@ -49536,16 +49030,8 @@
       <c r="AS354" t="n">
         <v>5310</v>
       </c>
-      <c r="AT354" t="inlineStr">
-        <is>
-          <t>prd.40051401</t>
-        </is>
-      </c>
-      <c r="AU354" t="inlineStr">
-        <is>
-          <t>Plik: prd.40051401.dld, grubość=4.0 mm, promień_wewn=5.6326 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT354" t="inlineStr"/>
+      <c r="AU354" t="inlineStr"/>
       <c r="AV354" t="inlineStr"/>
       <c r="AW354" t="inlineStr"/>
       <c r="AX354" t="inlineStr"/>
@@ -49558,31 +49044,11 @@
         </is>
       </c>
       <c r="BC354" t="inlineStr"/>
-      <c r="BD354" t="inlineStr">
-        <is>
-          <t>a_zewn=394.919392, a_in=400.91, a_out=404.55; b_zewn=3.566362, b_in=9.56, b_out=13.2</t>
-        </is>
-      </c>
-      <c r="BE354" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF354" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(404.55,13.2), Inside(a,b)=(400.91,9.56)</t>
-        </is>
-      </c>
-      <c r="BG354" t="inlineStr">
-        <is>
-          <t>5.6326</t>
-        </is>
-      </c>
-      <c r="BH354" t="inlineStr">
-        <is>
-          <t>11.99</t>
-        </is>
-      </c>
+      <c r="BD354" t="inlineStr"/>
+      <c r="BE354" t="inlineStr"/>
+      <c r="BF354" t="inlineStr"/>
+      <c r="BG354" t="inlineStr"/>
+      <c r="BH354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -51438,10 +50904,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T369" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
+      <c r="T369" t="n">
+        <v>5</v>
       </c>
       <c r="U369" t="inlineStr">
         <is>
@@ -51508,16 +50972,8 @@
       <c r="AS369" t="n">
         <v>5310</v>
       </c>
-      <c r="AT369" t="inlineStr">
-        <is>
-          <t>prd.SL41061900</t>
-        </is>
-      </c>
-      <c r="AU369" t="inlineStr">
-        <is>
-          <t>Plik: prd.SL41061900.dld, grubość=5.0 mm, promień_wewn=7.01898 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT369" t="inlineStr"/>
+      <c r="AU369" t="inlineStr"/>
       <c r="AV369" t="inlineStr"/>
       <c r="AW369" t="inlineStr"/>
       <c r="AX369" t="inlineStr"/>
@@ -51530,31 +50986,11 @@
         </is>
       </c>
       <c r="BC369" t="inlineStr"/>
-      <c r="BD369" t="inlineStr">
-        <is>
-          <t>a_zewn=488.935163, a_in=496.41, a_out=500.95; b_zewn=11.064837, b_in=18.54, b_out=23.08</t>
-        </is>
-      </c>
-      <c r="BE369" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF369" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(500.95,23.08), Inside(a,b)=(496.41,18.54)</t>
-        </is>
-      </c>
-      <c r="BG369" t="inlineStr">
-        <is>
-          <t>7.01898</t>
-        </is>
-      </c>
-      <c r="BH369" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
+      <c r="BD369" t="inlineStr"/>
+      <c r="BE369" t="inlineStr"/>
+      <c r="BF369" t="inlineStr"/>
+      <c r="BG369" t="inlineStr"/>
+      <c r="BH369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -51738,10 +51174,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T371" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
+      <c r="T371" t="n">
+        <v>8</v>
       </c>
       <c r="U371" t="inlineStr">
         <is>
@@ -51804,16 +51238,8 @@
       <c r="AS371" t="n">
         <v>5310</v>
       </c>
-      <c r="AT371" t="inlineStr">
-        <is>
-          <t>prd.41061214</t>
-        </is>
-      </c>
-      <c r="AU371" t="inlineStr">
-        <is>
-          <t>Plik: prd.41061214.dld, grubość=8.0 mm, promień_wewn=11.19291 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT371" t="inlineStr"/>
+      <c r="AU371" t="inlineStr"/>
       <c r="AV371" t="inlineStr"/>
       <c r="AW371" t="inlineStr"/>
       <c r="AX371" t="inlineStr"/>
@@ -51826,31 +51252,11 @@
         </is>
       </c>
       <c r="BC371" t="inlineStr"/>
-      <c r="BD371" t="inlineStr">
-        <is>
-          <t>a_zewn=786.599634, a_in=798.53, a_out=805.79; b_zewn=11.150337, b_in=23.08, b_out=30.34</t>
-        </is>
-      </c>
-      <c r="BE371" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF371" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(805.79,30.34), Inside(a,b)=(798.53,23.08)</t>
-        </is>
-      </c>
-      <c r="BG371" t="inlineStr">
-        <is>
-          <t>11.19291</t>
-        </is>
-      </c>
-      <c r="BH371" t="inlineStr">
-        <is>
-          <t>23.86</t>
-        </is>
-      </c>
+      <c r="BD371" t="inlineStr"/>
+      <c r="BE371" t="inlineStr"/>
+      <c r="BF371" t="inlineStr"/>
+      <c r="BG371" t="inlineStr"/>
+      <c r="BH371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -52034,10 +51440,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T373" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
+      <c r="T373" t="n">
+        <v>5</v>
       </c>
       <c r="U373" t="inlineStr">
         <is>
@@ -52100,16 +51504,8 @@
       <c r="AS373" t="n">
         <v>5310</v>
       </c>
-      <c r="AT373" t="inlineStr">
-        <is>
-          <t>prd.41061215</t>
-        </is>
-      </c>
-      <c r="AU373" t="inlineStr">
-        <is>
-          <t>Plik: prd.41061215.dld, grubość=5.0 mm, promień_wewn=12.83792 mm, kąt=120.0 st.</t>
-        </is>
-      </c>
+      <c r="AT373" t="inlineStr"/>
+      <c r="AU373" t="inlineStr"/>
       <c r="AV373" t="inlineStr"/>
       <c r="AW373" t="inlineStr"/>
       <c r="AX373" t="inlineStr"/>
@@ -52122,31 +51518,11 @@
         </is>
       </c>
       <c r="BC373" t="inlineStr"/>
-      <c r="BD373" t="inlineStr">
-        <is>
-          <t>a_zewn=272.29086, a_in=288.35, a_out=282.59; b_zewn=9.29086, b_in=25.35, b_out=19.59</t>
-        </is>
-      </c>
-      <c r="BE373" t="inlineStr">
-        <is>
-          <t>120.0</t>
-        </is>
-      </c>
-      <c r="BF373" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(282.59,19.59), Inside(a,b)=(288.35,25.35)</t>
-        </is>
-      </c>
-      <c r="BG373" t="inlineStr">
-        <is>
-          <t>12.83792</t>
-        </is>
-      </c>
-      <c r="BH373" t="inlineStr">
-        <is>
-          <t>32.12</t>
-        </is>
-      </c>
+      <c r="BD373" t="inlineStr"/>
+      <c r="BE373" t="inlineStr"/>
+      <c r="BF373" t="inlineStr"/>
+      <c r="BG373" t="inlineStr"/>
+      <c r="BH373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -52330,10 +51706,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T375" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
+      <c r="T375" t="n">
+        <v>5</v>
       </c>
       <c r="U375" t="inlineStr">
         <is>
@@ -52396,16 +51770,8 @@
       <c r="AS375" t="n">
         <v>5310</v>
       </c>
-      <c r="AT375" t="inlineStr">
-        <is>
-          <t>prd.40061200</t>
-        </is>
-      </c>
-      <c r="AU375" t="inlineStr">
-        <is>
-          <t>Plik: prd.40061200.dld, grubość=5.0 mm, promień_wewn=3.33939 mm, kąt=20.0 st.</t>
-        </is>
-      </c>
+      <c r="AT375" t="inlineStr"/>
+      <c r="AU375" t="inlineStr"/>
       <c r="AV375" t="inlineStr"/>
       <c r="AW375" t="inlineStr"/>
       <c r="AX375" t="inlineStr"/>
@@ -52418,31 +51784,11 @@
         </is>
       </c>
       <c r="BC375" t="inlineStr"/>
-      <c r="BD375" t="inlineStr">
-        <is>
-          <t>a_zewn=371.0, a_in=372.02, a_out=418.3; b_zewn=6.0, b_in=7.02, b_out=53.3</t>
-        </is>
-      </c>
-      <c r="BE375" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="BF375" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(418.3,53.3), Inside(a,b)=(372.02,7.02)</t>
-        </is>
-      </c>
-      <c r="BG375" t="inlineStr">
-        <is>
-          <t>3.33939</t>
-        </is>
-      </c>
-      <c r="BH375" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
+      <c r="BD375" t="inlineStr"/>
+      <c r="BE375" t="inlineStr"/>
+      <c r="BF375" t="inlineStr"/>
+      <c r="BG375" t="inlineStr"/>
+      <c r="BH375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -53252,10 +52598,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T382" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
+      <c r="T382" t="n">
+        <v>5</v>
       </c>
       <c r="U382" t="inlineStr">
         <is>
@@ -53322,16 +52666,8 @@
       <c r="AS382" t="n">
         <v>5310</v>
       </c>
-      <c r="AT382" t="inlineStr">
-        <is>
-          <t>prd.SL41061900</t>
-        </is>
-      </c>
-      <c r="AU382" t="inlineStr">
-        <is>
-          <t>Plik: prd.SL41061900.dld, grubość=5.0 mm, promień_wewn=7.01898 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT382" t="inlineStr"/>
+      <c r="AU382" t="inlineStr"/>
       <c r="AV382" t="inlineStr"/>
       <c r="AW382" t="inlineStr"/>
       <c r="AX382" t="inlineStr"/>
@@ -53344,31 +52680,11 @@
         </is>
       </c>
       <c r="BC382" t="inlineStr"/>
-      <c r="BD382" t="inlineStr">
-        <is>
-          <t>a_zewn=488.935163, a_in=496.41, a_out=500.95; b_zewn=11.064837, b_in=18.54, b_out=23.08</t>
-        </is>
-      </c>
-      <c r="BE382" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF382" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(500.95,23.08), Inside(a,b)=(496.41,18.54)</t>
-        </is>
-      </c>
-      <c r="BG382" t="inlineStr">
-        <is>
-          <t>7.01898</t>
-        </is>
-      </c>
-      <c r="BH382" t="inlineStr">
-        <is>
-          <t>14.95</t>
-        </is>
-      </c>
+      <c r="BD382" t="inlineStr"/>
+      <c r="BE382" t="inlineStr"/>
+      <c r="BF382" t="inlineStr"/>
+      <c r="BG382" t="inlineStr"/>
+      <c r="BH382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -53552,10 +52868,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T384" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
+      <c r="T384" t="n">
+        <v>8</v>
       </c>
       <c r="U384" t="inlineStr">
         <is>
@@ -53618,16 +52932,8 @@
       <c r="AS384" t="n">
         <v>5310</v>
       </c>
-      <c r="AT384" t="inlineStr">
-        <is>
-          <t>prd.41061318</t>
-        </is>
-      </c>
-      <c r="AU384" t="inlineStr">
-        <is>
-          <t>Plik: prd.41061318.dld, grubość=8.0 mm, promień_wewn=11.19291 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT384" t="inlineStr"/>
+      <c r="AU384" t="inlineStr"/>
       <c r="AV384" t="inlineStr"/>
       <c r="AW384" t="inlineStr"/>
       <c r="AX384" t="inlineStr"/>
@@ -53640,31 +52946,11 @@
         </is>
       </c>
       <c r="BC384" t="inlineStr"/>
-      <c r="BD384" t="inlineStr">
-        <is>
-          <t>a_zewn=786.599634, a_in=798.53, a_out=805.79; b_zewn=54.400366, b_in=66.33, b_out=73.59</t>
-        </is>
-      </c>
-      <c r="BE384" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF384" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(805.79,73.59), Inside(a,b)=(798.53,66.33)</t>
-        </is>
-      </c>
-      <c r="BG384" t="inlineStr">
-        <is>
-          <t>11.19291</t>
-        </is>
-      </c>
-      <c r="BH384" t="inlineStr">
-        <is>
-          <t>23.86</t>
-        </is>
-      </c>
+      <c r="BD384" t="inlineStr"/>
+      <c r="BE384" t="inlineStr"/>
+      <c r="BF384" t="inlineStr"/>
+      <c r="BG384" t="inlineStr"/>
+      <c r="BH384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -54144,10 +53430,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T388" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
+      <c r="T388" t="n">
+        <v>5</v>
       </c>
       <c r="U388" t="inlineStr">
         <is>
@@ -54210,16 +53494,8 @@
       <c r="AS388" t="n">
         <v>5310</v>
       </c>
-      <c r="AT388" t="inlineStr">
-        <is>
-          <t>prd.40061300</t>
-        </is>
-      </c>
-      <c r="AU388" t="inlineStr">
-        <is>
-          <t>Plik: prd.40061300.dld, grubość=5.0 mm, promień_wewn=3.61432 mm, kąt=30.0 st.</t>
-        </is>
-      </c>
+      <c r="AT388" t="inlineStr"/>
+      <c r="AU388" t="inlineStr"/>
       <c r="AV388" t="inlineStr"/>
       <c r="AW388" t="inlineStr"/>
       <c r="AX388" t="inlineStr"/>
@@ -54232,31 +53508,11 @@
         </is>
       </c>
       <c r="BC388" t="inlineStr"/>
-      <c r="BD388" t="inlineStr">
-        <is>
-          <t>a_zewn=369.0, a_in=370.6, a_out=401.15; b_zewn=6.0, b_in=7.6, b_out=38.15</t>
-        </is>
-      </c>
-      <c r="BE388" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="BF388" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(401.15,38.15), Inside(a,b)=(370.6,7.6)</t>
-        </is>
-      </c>
-      <c r="BG388" t="inlineStr">
-        <is>
-          <t>3.61432</t>
-        </is>
-      </c>
-      <c r="BH388" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
+      <c r="BD388" t="inlineStr"/>
+      <c r="BE388" t="inlineStr"/>
+      <c r="BF388" t="inlineStr"/>
+      <c r="BG388" t="inlineStr"/>
+      <c r="BH388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -55774,10 +55030,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T400" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
+      <c r="T400" t="n">
+        <v>8</v>
       </c>
       <c r="U400" t="inlineStr">
         <is>
@@ -55840,16 +55094,8 @@
       <c r="AS400" t="n">
         <v>5310</v>
       </c>
-      <c r="AT400" t="inlineStr">
-        <is>
-          <t>prd.40062106</t>
-        </is>
-      </c>
-      <c r="AU400" t="inlineStr">
-        <is>
-          <t>Plik: prd.40062106.dld, grubość=8.0 mm, promień_wewn=11.19291 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT400" t="inlineStr"/>
+      <c r="AU400" t="inlineStr"/>
       <c r="AV400" t="inlineStr"/>
       <c r="AW400" t="inlineStr"/>
       <c r="AX400" t="inlineStr"/>
@@ -55862,31 +55108,11 @@
         </is>
       </c>
       <c r="BC400" t="inlineStr"/>
-      <c r="BD400" t="inlineStr">
-        <is>
-          <t>a_zewn=787.080465, a_in=799.01, a_out=806.27; b_zewn=11.150338, b_in=23.08, b_out=30.34</t>
-        </is>
-      </c>
-      <c r="BE400" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF400" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(806.27,30.34), Inside(a,b)=(799.01,23.08)</t>
-        </is>
-      </c>
-      <c r="BG400" t="inlineStr">
-        <is>
-          <t>11.19291</t>
-        </is>
-      </c>
-      <c r="BH400" t="inlineStr">
-        <is>
-          <t>23.86</t>
-        </is>
-      </c>
+      <c r="BD400" t="inlineStr"/>
+      <c r="BE400" t="inlineStr"/>
+      <c r="BF400" t="inlineStr"/>
+      <c r="BG400" t="inlineStr"/>
+      <c r="BH400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -56076,10 +55302,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T402" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
+      <c r="T402" t="n">
+        <v>8</v>
       </c>
       <c r="U402" t="inlineStr">
         <is>
@@ -56142,16 +55366,8 @@
       <c r="AS402" t="n">
         <v>5310</v>
       </c>
-      <c r="AT402" t="inlineStr">
-        <is>
-          <t>prd.40062106</t>
-        </is>
-      </c>
-      <c r="AU402" t="inlineStr">
-        <is>
-          <t>Plik: prd.40062106.dld, grubość=8.0 mm, promień_wewn=11.19291 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT402" t="inlineStr"/>
+      <c r="AU402" t="inlineStr"/>
       <c r="AV402" t="inlineStr"/>
       <c r="AW402" t="inlineStr"/>
       <c r="AX402" t="inlineStr"/>
@@ -56164,31 +55380,11 @@
         </is>
       </c>
       <c r="BC402" t="inlineStr"/>
-      <c r="BD402" t="inlineStr">
-        <is>
-          <t>a_zewn=787.080465, a_in=799.01, a_out=806.27; b_zewn=11.150338, b_in=23.08, b_out=30.34</t>
-        </is>
-      </c>
-      <c r="BE402" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF402" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(806.27,30.34), Inside(a,b)=(799.01,23.08)</t>
-        </is>
-      </c>
-      <c r="BG402" t="inlineStr">
-        <is>
-          <t>11.19291</t>
-        </is>
-      </c>
-      <c r="BH402" t="inlineStr">
-        <is>
-          <t>23.86</t>
-        </is>
-      </c>
+      <c r="BD402" t="inlineStr"/>
+      <c r="BE402" t="inlineStr"/>
+      <c r="BF402" t="inlineStr"/>
+      <c r="BG402" t="inlineStr"/>
+      <c r="BH402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -67180,10 +66376,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T486" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="T486" t="n">
+        <v>3</v>
       </c>
       <c r="U486" t="inlineStr">
         <is>
@@ -67250,16 +66444,8 @@
       <c r="AS486" t="n">
         <v>5310</v>
       </c>
-      <c r="AT486" t="inlineStr">
-        <is>
-          <t>prd.41085101</t>
-        </is>
-      </c>
-      <c r="AU486" t="inlineStr">
-        <is>
-          <t>Plik: prd.41085101.dld, grubość=3.0 mm, promień_wewn=7.70931 mm, kąt=120.0 st.</t>
-        </is>
-      </c>
+      <c r="AT486" t="inlineStr"/>
+      <c r="AU486" t="inlineStr"/>
       <c r="AV486" t="inlineStr"/>
       <c r="AW486" t="inlineStr"/>
       <c r="AX486" t="inlineStr"/>
@@ -67272,31 +66458,11 @@
         </is>
       </c>
       <c r="BC486" t="inlineStr"/>
-      <c r="BD486" t="inlineStr">
-        <is>
-          <t>a_zewn=295.964009, a_in=305.61, a_out=302.15; b_zewn=291.964009, b_in=301.61, b_out=298.15</t>
-        </is>
-      </c>
-      <c r="BE486" t="inlineStr">
-        <is>
-          <t>120.0</t>
-        </is>
-      </c>
-      <c r="BF486" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(302.15,298.15), Inside(a,b)=(305.61,301.61)</t>
-        </is>
-      </c>
-      <c r="BG486" t="inlineStr">
-        <is>
-          <t>7.70931</t>
-        </is>
-      </c>
-      <c r="BH486" t="inlineStr">
-        <is>
-          <t>19.29</t>
-        </is>
-      </c>
+      <c r="BD486" t="inlineStr"/>
+      <c r="BE486" t="inlineStr"/>
+      <c r="BF486" t="inlineStr"/>
+      <c r="BG486" t="inlineStr"/>
+      <c r="BH486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -67698,10 +66864,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T489" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="T489" t="n">
+        <v>4</v>
       </c>
       <c r="U489" t="inlineStr">
         <is>
@@ -67764,16 +66928,8 @@
       <c r="AS489" t="n">
         <v>5310</v>
       </c>
-      <c r="AT489" t="inlineStr">
-        <is>
-          <t>prd.41085101</t>
-        </is>
-      </c>
-      <c r="AU489" t="inlineStr">
-        <is>
-          <t>Plik: prd.41085101.dld, grubość=3.0 mm, promień_wewn=7.70931 mm, kąt=120.0 st.</t>
-        </is>
-      </c>
+      <c r="AT489" t="inlineStr"/>
+      <c r="AU489" t="inlineStr"/>
       <c r="AV489" t="inlineStr"/>
       <c r="AW489" t="inlineStr"/>
       <c r="AX489" t="inlineStr"/>
@@ -67786,31 +66942,11 @@
         </is>
       </c>
       <c r="BC489" t="inlineStr"/>
-      <c r="BD489" t="inlineStr">
-        <is>
-          <t>a_zewn=295.964009, a_in=305.61, a_out=302.15; b_zewn=291.964009, b_in=301.61, b_out=298.15</t>
-        </is>
-      </c>
-      <c r="BE489" t="inlineStr">
-        <is>
-          <t>120.0</t>
-        </is>
-      </c>
-      <c r="BF489" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(302.15,298.15), Inside(a,b)=(305.61,301.61)</t>
-        </is>
-      </c>
-      <c r="BG489" t="inlineStr">
-        <is>
-          <t>7.70931</t>
-        </is>
-      </c>
-      <c r="BH489" t="inlineStr">
-        <is>
-          <t>19.29</t>
-        </is>
-      </c>
+      <c r="BD489" t="inlineStr"/>
+      <c r="BE489" t="inlineStr"/>
+      <c r="BF489" t="inlineStr"/>
+      <c r="BG489" t="inlineStr"/>
+      <c r="BH489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -70676,10 +69812,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T511" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
+      <c r="T511" t="n">
+        <v>4</v>
       </c>
       <c r="U511" t="inlineStr">
         <is>
@@ -70740,16 +69874,8 @@
       <c r="AS511" t="n">
         <v>5310</v>
       </c>
-      <c r="AT511" t="inlineStr">
-        <is>
-          <t>prd.500173</t>
-        </is>
-      </c>
-      <c r="AU511" t="inlineStr">
-        <is>
-          <t>Plik: prd.500173.dld, grubość=4.0 mm, promień_wewn=5.6326 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT511" t="inlineStr"/>
+      <c r="AU511" t="inlineStr"/>
       <c r="AV511" t="inlineStr"/>
       <c r="AW511" t="inlineStr"/>
       <c r="AX511" t="inlineStr"/>
@@ -70762,31 +69888,11 @@
         </is>
       </c>
       <c r="BC511" t="inlineStr"/>
-      <c r="BD511" t="inlineStr">
-        <is>
-          <t>a_zewn=396.433646, a_in=402.43, a_out=406.07; b_zewn=3.566354, b_in=9.56, b_out=13.2</t>
-        </is>
-      </c>
-      <c r="BE511" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF511" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(406.07,13.2), Inside(a,b)=(402.43,9.56)</t>
-        </is>
-      </c>
-      <c r="BG511" t="inlineStr">
-        <is>
-          <t>5.6326</t>
-        </is>
-      </c>
-      <c r="BH511" t="inlineStr">
-        <is>
-          <t>11.99</t>
-        </is>
-      </c>
+      <c r="BD511" t="inlineStr"/>
+      <c r="BE511" t="inlineStr"/>
+      <c r="BF511" t="inlineStr"/>
+      <c r="BG511" t="inlineStr"/>
+      <c r="BH511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -71232,10 +70338,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T515" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="T515" t="n">
+        <v>3</v>
       </c>
       <c r="U515" t="inlineStr">
         <is>
@@ -71296,16 +70400,8 @@
       <c r="AS515" t="n">
         <v>5310</v>
       </c>
-      <c r="AT515" t="inlineStr">
-        <is>
-          <t>prd.032201</t>
-        </is>
-      </c>
-      <c r="AU515" t="inlineStr">
-        <is>
-          <t>Plik: prd.032201.dld, grubość=3.0 mm, promień_wewn=4.25299 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT515" t="inlineStr"/>
+      <c r="AU515" t="inlineStr"/>
       <c r="AV515" t="inlineStr"/>
       <c r="AW515" t="inlineStr"/>
       <c r="AX515" t="inlineStr"/>
@@ -71318,31 +70414,11 @@
         </is>
       </c>
       <c r="BC515" t="inlineStr"/>
-      <c r="BD515" t="inlineStr">
-        <is>
-          <t>a_zewn=295.029364, a_in=299.55, a_out=302.28; b_zewn=3.821885, b_in=8.34, b_out=11.07</t>
-        </is>
-      </c>
-      <c r="BE515" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF515" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(302.28,11.07), Inside(a,b)=(299.55,8.34)</t>
-        </is>
-      </c>
-      <c r="BG515" t="inlineStr">
-        <is>
-          <t>4.25299</t>
-        </is>
-      </c>
-      <c r="BH515" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
+      <c r="BD515" t="inlineStr"/>
+      <c r="BE515" t="inlineStr"/>
+      <c r="BF515" t="inlineStr"/>
+      <c r="BG515" t="inlineStr"/>
+      <c r="BH515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -72162,10 +71238,8 @@
           <t>BLECH</t>
         </is>
       </c>
-      <c r="T522" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
+      <c r="T522" t="n">
+        <v>3</v>
       </c>
       <c r="U522" t="inlineStr">
         <is>
@@ -72226,16 +71300,8 @@
       <c r="AS522" t="n">
         <v>5310</v>
       </c>
-      <c r="AT522" t="inlineStr">
-        <is>
-          <t>prd.032201</t>
-        </is>
-      </c>
-      <c r="AU522" t="inlineStr">
-        <is>
-          <t>Plik: prd.032201.dld, grubość=3.0 mm, promień_wewn=4.25299 mm, kąt=90.0 st.</t>
-        </is>
-      </c>
+      <c r="AT522" t="inlineStr"/>
+      <c r="AU522" t="inlineStr"/>
       <c r="AV522" t="inlineStr"/>
       <c r="AW522" t="inlineStr"/>
       <c r="AX522" t="inlineStr"/>
@@ -72248,31 +71314,11 @@
         </is>
       </c>
       <c r="BC522" t="inlineStr"/>
-      <c r="BD522" t="inlineStr">
-        <is>
-          <t>a_zewn=295.029364, a_in=299.55, a_out=302.28; b_zewn=3.821885, b_in=8.34, b_out=11.07</t>
-        </is>
-      </c>
-      <c r="BE522" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="BF522" t="inlineStr">
-        <is>
-          <t>Outside(a,b)=(302.28,11.07), Inside(a,b)=(299.55,8.34)</t>
-        </is>
-      </c>
-      <c r="BG522" t="inlineStr">
-        <is>
-          <t>4.25299</t>
-        </is>
-      </c>
-      <c r="BH522" t="inlineStr">
-        <is>
-          <t>9.04</t>
-        </is>
-      </c>
+      <c r="BD522" t="inlineStr"/>
+      <c r="BE522" t="inlineStr"/>
+      <c r="BF522" t="inlineStr"/>
+      <c r="BG522" t="inlineStr"/>
+      <c r="BH522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="n">
